--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183759.759001077</v>
+        <v>1179298.61805585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8305778.215164229</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11192483.67277902</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6341553.680158331</v>
+        <v>4468250.372829784</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>223.8171256153747</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>218.1489220670742</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>228.9515272650911</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>122.9353869266258</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>126.9764945929925</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7787146945351</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>89.78460564698402</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>138.1517647168886</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>204.1756257356587</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0443909947472</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.261081120297732</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>35.57632778696443</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>46.58014009465673</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>37.75195929083311</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>43.62337740153602</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>46.46670516944535</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.24370274974358</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>89.78460564698402</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>144.505116090285</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>175.5248718906078</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0443909947472</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.261081120297732</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>35.57632778696443</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>50.87273504231605</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>37.75195929083311</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>46.46670516944535</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.24370274974358</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.78460564698402</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>166.8114815453095</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0443909947472</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.261081120297732</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>35.57632778696443</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>42.71310853462798</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>37.75195929083311</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>43.62337740153602</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>47.66448506790279</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>36.42424558553093</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>46.46670516944535</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.24370274974358</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>138.8547512757679</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>128.8285521652783</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0443909947472</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.261081120297732</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>35.57632778696443</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>40.08041320363104</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>42.71310853462798</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>37.75195929083311</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>43.62337740153602</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>47.66448506790279</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>46.46670516944535</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.24370274974358</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.00819977142329</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>148.7287102147242</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>143.3085284720098</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>187.3560901182931</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>39.7999219114037</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>55.09632916675532</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,25 +10035,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>41.97555341527239</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>50.69029929388462</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.46729687418285</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>35.97669213330241</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>85.27702083388886</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.6573932506309</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.435789236061964</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.97669213330241</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>85.27702083388886</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.23647748106561</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>126.6952682705925</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.435789236061964</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>84.34385120320704</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>77.23647748106561</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>2.232080949338496</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.435789236061964</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>35.97669213330241</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>75.02063865159667</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.23647748106561</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>118.1714913153427</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.435789236061964</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.70238736347565</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>98.4228978067766</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1747618263814</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.96217271123885</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>5.252727281233803</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>1.58226678439442</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.4725427837783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>274.0115928913053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>263.4217427409807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>290.6690711925595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>315.6147468620092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>324.0414386354328</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>248.2135032360649</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>119.2145906907036</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.60781906144742</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>117.7587707065431</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8345506844291</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0843540281342</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
-        <v>236.4909595904326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>257.9796698377107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>278.4698017987668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.9766397763513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.27188477016507</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>81.44720010861347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>56.18376668493649</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>66.38378157569868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>53.80791351368161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>46.08221828350837</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>20.9741453567942</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.896535272940866</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>80.42187222413556</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>108.9034298151193</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>134.6800832012726</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
-        <v>141.539288269723</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>160.4336842812173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>114.5116863237752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.4213968976021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.57068130223503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98552221892557</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.35417413851009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>55.1726637668669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.15974914322898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>76.72968047875649</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>70.96587362773731</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>64.18917604755602</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>2.097881236970508</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>86.03209249746722</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>132.75529915727</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>136.6842905485792</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>195.0577304767886</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
-        <v>160.8763444441257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>195.2616994568887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>134.4483565093349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3233544723925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4725427837783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>274.0115928913053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>263.4217427409807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6690711925595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>315.6147468620092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>324.0414386354328</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>248.2135032360649</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>119.2145906907036</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.60781906144742</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>117.7587707065431</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>131.8345506844291</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0843540281342</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4909595904326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>257.9796698377107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>278.4698017987668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9766397763513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.27188477016507</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>81.44720010861347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>56.18376668493649</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>66.38378157569868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>53.80791351368161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>46.08221828350837</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>20.9741453567942</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.896535272940866</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>80.42187222413556</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>108.9034298151193</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6800832012726</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
-        <v>141.539288269723</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>160.4336842812173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>114.5116863237752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.4213968976021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.57068130223503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>75.98552221892557</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>57.35417413851009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>55.1726637668669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>54.15974914322898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.72968047875649</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>70.96587362773731</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>64.18917604755602</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>2.097881236970508</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>86.03209249746722</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>132.75529915727</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6842905485792</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>195.0577304767886</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
-        <v>160.8763444441257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>195.2616994568887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4483565093349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3233544723925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.4725427837783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0115928913053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4217427409807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6690711925595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>315.6147468620092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>324.0414386354328</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>248.2135032360649</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>119.2145906907036</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.60781906144742</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>117.7587707065431</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>131.8345506844291</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0843540281342</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4909595904326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>257.9796698377107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4698017987668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9766397763513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.27188477016507</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>81.44720010861347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>56.18376668493649</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>66.38378157569868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>53.80791351368161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>46.08221828350837</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>20.9741453567942</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.896535272940866</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>80.42187222413556</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>108.9034298151193</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6800832012726</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>141.539288269723</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>160.4336842812173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>114.5116863237752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.4213968976021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.57068130223503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>75.98552221892557</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.35417413851009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>55.1726637668669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>54.15974914322898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.72968047875649</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>70.96587362773731</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>64.18917604755602</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>2.097881236970508</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>86.03209249746722</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>132.75529915727</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6842905485792</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>195.0577304767886</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
-        <v>160.8763444441257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>195.2616994568887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>134.4483565093349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.3233544723925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.4725427837783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0115928913053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>263.4217427409807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6690711925595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>315.6147468620092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>324.0414386354328</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>248.2135032360649</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>119.2145906907036</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.60781906144742</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>117.7587707065431</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>131.8345506844291</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>160.0843540281342</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4909595904326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>257.9796698377107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>278.4698017987668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9766397763513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.27188477016507</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.44720010861347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>56.18376668493649</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>66.38378157569868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>53.80791351368161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>46.08221828350837</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>20.9741453567942</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.896535272940866</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>80.42187222413556</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>108.9034298151193</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>134.6800832012726</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
-        <v>141.539288269723</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>160.4336842812173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>114.5116863237752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.4213968976021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.57068130223503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>75.98552221892557</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.35417413851009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>55.1726637668669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>54.15974914322898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>76.72968047875649</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>70.96587362773731</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>64.18917604755602</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>2.097881236970508</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>86.03209249746722</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>132.75529915727</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6842905485792</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0577304767886</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8763444441257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2616994568887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>134.4483565093349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.3233544723925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.6961369082176</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>278.2351870157445</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>267.6453368654199</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>294.8926653169988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>319.8383409864484</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>328.265032759872</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>252.4370973605041</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>123.4381848151429</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>62.83141318588669</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>121.9823648309823</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0581448088683</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>164.3079481525735</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
-        <v>240.7145537148719</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>262.20326396215</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>282.693395923206</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>299.2002339007906</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.49547889460435</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>85.67079423305275</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>60.40736080937576</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>70.60737570013795</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>58.03150763812089</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>50.30581240794764</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>25.19773948123347</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>2.358928096152084</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.12012939738014</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>84.64546634857483</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>113.1270239395586</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>138.9036773257118</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>145.7628823941623</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>164.6572784056566</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>118.7352804482145</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.6449910220414</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.7942754266743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>80.20911634336484</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>61.57776826294936</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.39625789130618</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>58.38334326766825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>80.95327460319577</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>75.18946775217658</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>68.41277017199529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>6.321475361409782</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>90.25568662190649</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>136.9788932817092</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>140.9078846730185</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>199.2813246012279</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
-        <v>165.099938568565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>199.485293581328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>138.6719506337741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.5469485968318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>270.2335251217512</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>194.4055897223833</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>65.40667717702203</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.799905547765803</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>63.95085719286146</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>78.02663717074748</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2764405144526</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>26.61395871045394</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>55.09551630143773</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>80.87216968759094</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>22.92176696507488</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>17.1579601140557</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>10.38126253387441</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>32.22417898378561</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>78.94738564358838</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>82.87637703489762</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>141.249816963107</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2335251217512</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>194.4055897223833</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>65.40667717702203</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.799905547765803</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>63.95085719286146</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>78.02663717074748</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>106.2764405144526</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>26.61395871045394</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>55.09551630143773</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>80.87216968759094</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>22.92176696507488</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>17.1579601140557</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>10.38126253387441</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>32.22417898378561</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>78.94738564358838</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>82.87637703489762</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>141.249816963107</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>270.2335251217512</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>194.4055897223833</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>65.40667717702203</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.799905547765803</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>63.95085719286146</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>78.02663717074748</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>106.2764405144526</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>26.61395871045394</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>55.09551630143773</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>80.87216968759094</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.92176696507488</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>17.1579601140557</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>10.38126253387441</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>32.22417898378561</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>78.94738564358838</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>82.87637703489762</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>141.249816963107</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>270.2335251217512</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>194.4055897223833</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>65.40667717702203</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.799905547765803</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>63.95085719286146</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>78.02663717074748</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2764405144526</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>26.61395871045394</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>55.09551630143773</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>80.87216968759094</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>22.92176696507488</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>17.1579601140557</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>10.38126253387441</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>32.22417898378561</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>78.94738564358838</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>82.87637703489762</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>141.249816963107</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.3903245002699</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>227.9293746077969</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>217.3395244574723</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>244.5868529090511</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>269.5325285785008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>277.9592203519244</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>202.1312849525565</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>73.13237240719528</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.52560077793905</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>71.67655242303471</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>85.75233240092072</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>114.0021357446259</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>190.4087413069243</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>211.8974515542024</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>232.3875835152584</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.894421492843</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.18966648665671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>35.3649818251051</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>10.10154840142812</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>20.30156329219031</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>7.725695230173244</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>34.33965394062719</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>62.82121153161097</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>88.59786491776418</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>95.45706998621463</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>114.351465997709</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>68.42946804026684</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.33917861409373</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.48846301872666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9033039354172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>11.27195585500172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>9.090445483358536</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>8.077530859720611</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>30.64746219524812</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>24.88365534422894</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>18.10695776404765</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>39.94987421395885</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>86.67308087376162</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>90.60207226507086</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>148.9755121932803</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>114.7941261606174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>149.1794811733804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>88.36613822582652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.24113618888416</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342209.5883776415</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>487774.0889160705</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487774.0889160705</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>487774.0889160705</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>487774.0889160705</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>480292.1214120836</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>574037.8014711213</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>574037.8014711213</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>574037.8014711213</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>574037.8014711213</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>562344.8072263495</v>
+        <v>276512.287266581</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>317146.8463177669</v>
+        <v>276512.287266581</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>716866.7963774087</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.796377409</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="E2" t="n">
-        <v>214928.0813476826</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="F2" t="n">
-        <v>380413.3939910789</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="G2" t="n">
-        <v>380413.3939910789</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="H2" t="n">
-        <v>380413.3939910791</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="I2" t="n">
-        <v>380413.3939910796</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="J2" t="n">
-        <v>371760.8512337622</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="K2" t="n">
-        <v>485273.5829032722</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="L2" t="n">
-        <v>485273.5829032722</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="M2" t="n">
-        <v>485273.5829032722</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="N2" t="n">
-        <v>485273.5829032722</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="O2" t="n">
-        <v>470628.7550249557</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="P2" t="n">
-        <v>188137.9596800312</v>
+        <v>200060.9592622613</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>63449.6076200718</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6180.556184138585</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>109874.8137305685</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>146400.0624971071</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="F4" t="n">
-        <v>253376.4246354885</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="G4" t="n">
-        <v>253376.4246354885</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="H4" t="n">
-        <v>253376.4246354885</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="I4" t="n">
-        <v>253376.4246354885</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="J4" t="n">
-        <v>247789.3579787044</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="K4" t="n">
-        <v>320871.2252199132</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="L4" t="n">
-        <v>320871.2252199131</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="M4" t="n">
-        <v>320871.2252199131</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="N4" t="n">
-        <v>320871.2252199131</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="O4" t="n">
-        <v>311462.1452964236</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="P4" t="n">
-        <v>129008.8866377357</v>
+        <v>76451.32800431969</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>7672.24613551769</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>7672.24613551769</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>7672.24613551769</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>7672.24613551769</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>7317.172801070205</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>12195.82361669939</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>12195.82361669939</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>12195.82361669939</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>12195.82361669939</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>11546.33214439395</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>215623.2364456774</v>
       </c>
       <c r="C6" t="n">
-        <v>215623.2364456778</v>
+        <v>215623.2364456774</v>
       </c>
       <c r="D6" t="n">
-        <v>215623.2364456773</v>
+        <v>215623.2364456774</v>
       </c>
       <c r="E6" t="n">
-        <v>57964.02256013253</v>
+        <v>-13101.98084706678</v>
       </c>
       <c r="F6" t="n">
-        <v>55915.11560000095</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="G6" t="n">
-        <v>119364.7232200727</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="H6" t="n">
-        <v>119364.7232200729</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="I6" t="n">
-        <v>119364.7232200735</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="J6" t="n">
-        <v>110473.7642698489</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="K6" t="n">
-        <v>42331.72033609112</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="L6" t="n">
-        <v>152206.5340666597</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="M6" t="n">
-        <v>152206.5340666597</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="N6" t="n">
-        <v>152206.5340666597</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="O6" t="n">
-        <v>147620.2775841382</v>
+        <v>119998.0191529333</v>
       </c>
       <c r="P6" t="n">
-        <v>59129.07304229549</v>
+        <v>119998.0191529333</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.31200952508975</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.725695230173232</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>79.31200952508975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.725695230173232</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,37 +28128,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.281468490178454</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28166,31 +28168,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28247,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28287,34 +28289,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28360,40 +28362,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>27.05737001961086</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28484,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28524,34 +28526,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,37 +28563,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,37 +28602,37 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>54.57333953107888</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28673,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28837,37 +28839,37 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>63.28672987637723</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28879,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28919,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29037,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>42.19115325091843</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29150,40 +29152,40 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,40 +29195,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.26129887970227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,43 +29274,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>42.05697347829776</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29384,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.03770475526299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,7 +29544,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.64829662381856</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,37 +29669,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,31 +29827,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29858,43 +29860,43 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.646443812740781</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,40 +29906,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30019,7 +30021,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>139.9019529726798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30222,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,46 +30301,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>24.42475312910169</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,40 +30459,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>43.17147140089129</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,31 +30538,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30572,10 +30574,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
